--- a/medicine/Psychotrope/Ondenc/Ondenc.xlsx
+++ b/medicine/Psychotrope/Ondenc/Ondenc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'ondenc est un cépage blanc originaire du vignoble du Sud-Ouest de la France.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ondenc est un cépage du Sud-Ouest qui a longtemps peuplé les vignobles bordelais, bergeracois, Duras et Gaillac.
 Abandonné de tous, il a été éliminé au moment de la crise du phylloxéra, au profit notamment du sémillon et du sauvignon.
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau qui présente une très forte densité de poils couchés.
 Jeunes feuilles vertes.
@@ -578,7 +594,9 @@
           <t>Aptitudes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cultures : l'ondenc est un cépage fertile qui doit être conduit en taille courte ; très vigoureux et fertile, il a tendance à couler et alterner.
 Sensibilité : il craint surtout la pourriture grise et acide, mais aussi dans une moindre mesure, l'oïdium et le mildiou.
@@ -610,9 +628,11 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trois clones ont été sélectionnés : les numéros 674, 675 et 676. Le premier est plus fertile et productif grâce à des grappes plus lourdes, mais le degré alcoolique obtenu est plus faible. Vingt familles d'ondenc sont en cours d'étude au conservatoire viticole du Tarn à Peyrole[1]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois clones ont été sélectionnés : les numéros 674, 675 et 676. Le premier est plus fertile et productif grâce à des grappes plus lourdes, mais le degré alcoolique obtenu est plus faible. Vingt familles d'ondenc sont en cours d'étude au conservatoire viticole du Tarn à Peyrole
 </t>
         </is>
       </c>
@@ -641,7 +661,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Béquin, blanc sélection carrière, blanquette, chaloche, chalosse, dourec, dourech, Irvine's white, oustenc, picquepoul de Moissac, prentiou, pripaic, primard, sable blanc, semis blanc, sentit blanc, sercial.
 </t>
